--- a/contratos/contratos-4-2017.xlsx
+++ b/contratos/contratos-4-2017.xlsx
@@ -772,7 +772,7 @@
     <t>DA CAPO</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>BOURLOT NESTOR CONRADO</t>
@@ -1030,7 +1030,7 @@
     <t>SANCHEZ SUSANA BEATRIZ FRANCISCA</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>ROUSSEAUX MARTIN ANDRES</t>
@@ -1525,595 +1525,595 @@
     <t>65</t>
   </si>
   <si>
-    <t>22.064,00</t>
-  </si>
-  <si>
-    <t>11.060,00</t>
-  </si>
-  <si>
-    <t>23.730,00</t>
-  </si>
-  <si>
-    <t>354.000,00</t>
-  </si>
-  <si>
-    <t>8.300,00</t>
-  </si>
-  <si>
-    <t>769,00</t>
-  </si>
-  <si>
-    <t>5.378,38</t>
-  </si>
-  <si>
-    <t>570,00</t>
-  </si>
-  <si>
-    <t>363.167,34</t>
-  </si>
-  <si>
-    <t>957.777,05</t>
-  </si>
-  <si>
-    <t>20.584,20</t>
-  </si>
-  <si>
-    <t>12.850,00</t>
-  </si>
-  <si>
-    <t>13.990,00</t>
-  </si>
-  <si>
-    <t>2.441,40</t>
-  </si>
-  <si>
-    <t>28.366,57</t>
-  </si>
-  <si>
-    <t>10.051,94</t>
-  </si>
-  <si>
-    <t>28.138,00</t>
-  </si>
-  <si>
-    <t>10.600,00</t>
-  </si>
-  <si>
-    <t>6.650,00</t>
-  </si>
-  <si>
-    <t>19.355,91</t>
-  </si>
-  <si>
-    <t>3.200,00</t>
-  </si>
-  <si>
-    <t>6.197,00</t>
-  </si>
-  <si>
-    <t>1.360,62</t>
-  </si>
-  <si>
-    <t>37,50</t>
-  </si>
-  <si>
-    <t>1.380,00</t>
-  </si>
-  <si>
-    <t>74,00</t>
-  </si>
-  <si>
-    <t>7.545,85</t>
-  </si>
-  <si>
-    <t>7.800,00</t>
-  </si>
-  <si>
-    <t>37.691,38</t>
-  </si>
-  <si>
-    <t>134,88</t>
-  </si>
-  <si>
-    <t>405,00</t>
-  </si>
-  <si>
-    <t>6.668,01</t>
-  </si>
-  <si>
-    <t>10.500,00</t>
-  </si>
-  <si>
-    <t>6.338,00</t>
-  </si>
-  <si>
-    <t>849,00</t>
-  </si>
-  <si>
-    <t>1.399,00</t>
-  </si>
-  <si>
-    <t>2.955,00</t>
-  </si>
-  <si>
-    <t>46.708,29</t>
-  </si>
-  <si>
-    <t>392,00</t>
-  </si>
-  <si>
-    <t>7.939,20</t>
-  </si>
-  <si>
-    <t>1.962,00</t>
-  </si>
-  <si>
-    <t>386.118,60</t>
-  </si>
-  <si>
-    <t>12.041,90</t>
-  </si>
-  <si>
-    <t>2.381,00</t>
-  </si>
-  <si>
-    <t>6.200,00</t>
-  </si>
-  <si>
-    <t>1.005,00</t>
-  </si>
-  <si>
-    <t>189,96</t>
-  </si>
-  <si>
-    <t>47.311,00</t>
-  </si>
-  <si>
-    <t>75,30</t>
-  </si>
-  <si>
-    <t>11.141,79</t>
-  </si>
-  <si>
-    <t>242.286,19</t>
-  </si>
-  <si>
-    <t>1.211,69</t>
-  </si>
-  <si>
-    <t>7.568,90</t>
-  </si>
-  <si>
-    <t>10.430,00</t>
-  </si>
-  <si>
-    <t>40.000,00</t>
-  </si>
-  <si>
-    <t>41.020,00</t>
-  </si>
-  <si>
-    <t>19.638,00</t>
-  </si>
-  <si>
-    <t>750,00</t>
-  </si>
-  <si>
-    <t>24.950,00</t>
-  </si>
-  <si>
-    <t>1.278,83</t>
-  </si>
-  <si>
-    <t>4.770,00</t>
-  </si>
-  <si>
-    <t>169,00</t>
-  </si>
-  <si>
-    <t>4.753,80</t>
-  </si>
-  <si>
-    <t>546,99</t>
-  </si>
-  <si>
-    <t>9.232,00</t>
-  </si>
-  <si>
-    <t>15.095,25</t>
-  </si>
-  <si>
-    <t>2.120,00</t>
-  </si>
-  <si>
-    <t>4.940,40</t>
-  </si>
-  <si>
-    <t>2.190,00</t>
-  </si>
-  <si>
-    <t>28.315,00</t>
-  </si>
-  <si>
-    <t>6.500,00</t>
-  </si>
-  <si>
-    <t>52.852,00</t>
-  </si>
-  <si>
-    <t>3.818,00</t>
-  </si>
-  <si>
-    <t>14.330,00</t>
-  </si>
-  <si>
-    <t>115,50</t>
-  </si>
-  <si>
-    <t>7.590,00</t>
-  </si>
-  <si>
-    <t>760,00</t>
-  </si>
-  <si>
-    <t>5.800,00</t>
-  </si>
-  <si>
-    <t>30.000,00</t>
-  </si>
-  <si>
-    <t>558.358,95</t>
-  </si>
-  <si>
-    <t>53.261,49</t>
-  </si>
-  <si>
-    <t>2.040,00</t>
-  </si>
-  <si>
-    <t>153,12</t>
-  </si>
-  <si>
-    <t>24.806,59</t>
-  </si>
-  <si>
-    <t>150,00</t>
-  </si>
-  <si>
-    <t>8.221,10</t>
-  </si>
-  <si>
-    <t>5.177,80</t>
-  </si>
-  <si>
-    <t>7.223,00</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>1.080,00</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>518,82</t>
-  </si>
-  <si>
-    <t>4.226,00</t>
-  </si>
-  <si>
-    <t>42,00</t>
-  </si>
-  <si>
-    <t>275,00</t>
-  </si>
-  <si>
-    <t>5.240,00</t>
-  </si>
-  <si>
-    <t>20.188,71</t>
-  </si>
-  <si>
-    <t>2.536,00</t>
-  </si>
-  <si>
-    <t>1.632,50</t>
-  </si>
-  <si>
-    <t>40,00</t>
-  </si>
-  <si>
-    <t>554,00</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>332,66</t>
-  </si>
-  <si>
-    <t>2.760,00</t>
-  </si>
-  <si>
-    <t>7.475,00</t>
-  </si>
-  <si>
-    <t>4.040,76</t>
-  </si>
-  <si>
-    <t>15.400,00</t>
-  </si>
-  <si>
-    <t>4.984,00</t>
-  </si>
-  <si>
-    <t>3.500,00</t>
-  </si>
-  <si>
-    <t>17.000,00</t>
-  </si>
-  <si>
-    <t>4.300,00</t>
-  </si>
-  <si>
-    <t>79.000,00</t>
-  </si>
-  <si>
-    <t>2.500,00</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>15.000,00</t>
-  </si>
-  <si>
-    <t>282.800,70</t>
-  </si>
-  <si>
-    <t>900,00</t>
-  </si>
-  <si>
-    <t>308,52</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>1.565,00</t>
-  </si>
-  <si>
-    <t>4.878,89</t>
-  </si>
-  <si>
-    <t>2.631,05</t>
-  </si>
-  <si>
-    <t>22.068,56</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>14.000,00</t>
-  </si>
-  <si>
-    <t>12.000,00</t>
-  </si>
-  <si>
-    <t>55.118,83</t>
-  </si>
-  <si>
-    <t>11.000,00</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>4.999,12</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>9.000,00</t>
-  </si>
-  <si>
-    <t>6.446,84</t>
-  </si>
-  <si>
-    <t>24.641,50</t>
-  </si>
-  <si>
-    <t>15.500,00</t>
-  </si>
-  <si>
-    <t>4.500,00</t>
-  </si>
-  <si>
-    <t>4.700,00</t>
-  </si>
-  <si>
-    <t>8.100,00</t>
-  </si>
-  <si>
-    <t>7.776,00</t>
-  </si>
-  <si>
-    <t>8.000,00</t>
-  </si>
-  <si>
-    <t>2.800,00</t>
-  </si>
-  <si>
-    <t>284,00</t>
-  </si>
-  <si>
-    <t>1.150,00</t>
-  </si>
-  <si>
-    <t>2.340,00</t>
-  </si>
-  <si>
-    <t>9.428,00</t>
-  </si>
-  <si>
-    <t>4.450,00</t>
-  </si>
-  <si>
-    <t>141,66</t>
-  </si>
-  <si>
-    <t>22.500,00</t>
-  </si>
-  <si>
-    <t>963,06</t>
-  </si>
-  <si>
-    <t>690,00</t>
-  </si>
-  <si>
-    <t>60,00</t>
-  </si>
-  <si>
-    <t>607,16</t>
-  </si>
-  <si>
-    <t>768,00</t>
-  </si>
-  <si>
-    <t>795,96</t>
-  </si>
-  <si>
-    <t>31.610,00</t>
-  </si>
-  <si>
-    <t>6.308,00</t>
-  </si>
-  <si>
-    <t>16.140,00</t>
-  </si>
-  <si>
-    <t>4.442,76</t>
-  </si>
-  <si>
-    <t>3.986,95</t>
-  </si>
-  <si>
-    <t>6.293,00</t>
-  </si>
-  <si>
-    <t>434,00</t>
-  </si>
-  <si>
-    <t>84,00</t>
-  </si>
-  <si>
-    <t>305,05</t>
-  </si>
-  <si>
-    <t>17.816,00</t>
-  </si>
-  <si>
-    <t>93.325,08</t>
-  </si>
-  <si>
-    <t>13.098,98</t>
-  </si>
-  <si>
-    <t>25.000,00</t>
-  </si>
-  <si>
-    <t>50.000,00</t>
-  </si>
-  <si>
-    <t>1.095.892,26</t>
-  </si>
-  <si>
-    <t>6.141,61</t>
-  </si>
-  <si>
-    <t>3.400,00</t>
-  </si>
-  <si>
-    <t>18.900,00</t>
-  </si>
-  <si>
-    <t>128.000,00</t>
-  </si>
-  <si>
-    <t>135.500,00</t>
-  </si>
-  <si>
-    <t>224.000,00</t>
-  </si>
-  <si>
-    <t>320.000,00</t>
-  </si>
-  <si>
-    <t>226.500,00</t>
-  </si>
-  <si>
-    <t>184.190,00</t>
-  </si>
-  <si>
-    <t>136.140,00</t>
-  </si>
-  <si>
-    <t>9.033,00</t>
-  </si>
-  <si>
-    <t>9.200,00</t>
-  </si>
-  <si>
-    <t>1.239.032,94</t>
-  </si>
-  <si>
-    <t>52.260,00</t>
-  </si>
-  <si>
-    <t>1.103.922,00</t>
-  </si>
-  <si>
-    <t>625,00</t>
-  </si>
-  <si>
-    <t>7.500,00</t>
-  </si>
-  <si>
-    <t>5.040,00</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>13.000,00</t>
-  </si>
-  <si>
-    <t>58.831,54</t>
-  </si>
-  <si>
-    <t>62.000,00</t>
-  </si>
-  <si>
-    <t>280.000,00</t>
-  </si>
-  <si>
-    <t>535,53</t>
-  </si>
-  <si>
-    <t>1.185,80</t>
-  </si>
-  <si>
-    <t>770,00</t>
+    <t>22064.00</t>
+  </si>
+  <si>
+    <t>11060.00</t>
+  </si>
+  <si>
+    <t>23730.00</t>
+  </si>
+  <si>
+    <t>354000.00</t>
+  </si>
+  <si>
+    <t>8300.00</t>
+  </si>
+  <si>
+    <t>769.00</t>
+  </si>
+  <si>
+    <t>5378.38</t>
+  </si>
+  <si>
+    <t>570.00</t>
+  </si>
+  <si>
+    <t>363167.34</t>
+  </si>
+  <si>
+    <t>957777.05</t>
+  </si>
+  <si>
+    <t>20584.20</t>
+  </si>
+  <si>
+    <t>12850.00</t>
+  </si>
+  <si>
+    <t>13990.00</t>
+  </si>
+  <si>
+    <t>2441.40</t>
+  </si>
+  <si>
+    <t>28366.57</t>
+  </si>
+  <si>
+    <t>10051.94</t>
+  </si>
+  <si>
+    <t>28138.00</t>
+  </si>
+  <si>
+    <t>10600.00</t>
+  </si>
+  <si>
+    <t>6650.00</t>
+  </si>
+  <si>
+    <t>19355.91</t>
+  </si>
+  <si>
+    <t>3200.00</t>
+  </si>
+  <si>
+    <t>6197.00</t>
+  </si>
+  <si>
+    <t>1360.62</t>
+  </si>
+  <si>
+    <t>37.50</t>
+  </si>
+  <si>
+    <t>1380.00</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>7545.85</t>
+  </si>
+  <si>
+    <t>7800.00</t>
+  </si>
+  <si>
+    <t>37691.38</t>
+  </si>
+  <si>
+    <t>134.88</t>
+  </si>
+  <si>
+    <t>405.00</t>
+  </si>
+  <si>
+    <t>6668.01</t>
+  </si>
+  <si>
+    <t>10500.00</t>
+  </si>
+  <si>
+    <t>6338.00</t>
+  </si>
+  <si>
+    <t>849.00</t>
+  </si>
+  <si>
+    <t>1399.00</t>
+  </si>
+  <si>
+    <t>2955.00</t>
+  </si>
+  <si>
+    <t>46708.29</t>
+  </si>
+  <si>
+    <t>392.00</t>
+  </si>
+  <si>
+    <t>7939.20</t>
+  </si>
+  <si>
+    <t>1962.00</t>
+  </si>
+  <si>
+    <t>386118.60</t>
+  </si>
+  <si>
+    <t>12041.90</t>
+  </si>
+  <si>
+    <t>2381.00</t>
+  </si>
+  <si>
+    <t>6200.00</t>
+  </si>
+  <si>
+    <t>1005.00</t>
+  </si>
+  <si>
+    <t>189.96</t>
+  </si>
+  <si>
+    <t>47311.00</t>
+  </si>
+  <si>
+    <t>75.30</t>
+  </si>
+  <si>
+    <t>11141.79</t>
+  </si>
+  <si>
+    <t>242286.19</t>
+  </si>
+  <si>
+    <t>1211.69</t>
+  </si>
+  <si>
+    <t>7568.90</t>
+  </si>
+  <si>
+    <t>10430.00</t>
+  </si>
+  <si>
+    <t>40000.00</t>
+  </si>
+  <si>
+    <t>41020.00</t>
+  </si>
+  <si>
+    <t>19638.00</t>
+  </si>
+  <si>
+    <t>750.00</t>
+  </si>
+  <si>
+    <t>24950.00</t>
+  </si>
+  <si>
+    <t>1278.83</t>
+  </si>
+  <si>
+    <t>4770.00</t>
+  </si>
+  <si>
+    <t>169.00</t>
+  </si>
+  <si>
+    <t>4753.80</t>
+  </si>
+  <si>
+    <t>546.99</t>
+  </si>
+  <si>
+    <t>9232.00</t>
+  </si>
+  <si>
+    <t>15095.25</t>
+  </si>
+  <si>
+    <t>2120.00</t>
+  </si>
+  <si>
+    <t>4940.40</t>
+  </si>
+  <si>
+    <t>2190.00</t>
+  </si>
+  <si>
+    <t>28315.00</t>
+  </si>
+  <si>
+    <t>6500.00</t>
+  </si>
+  <si>
+    <t>52852.00</t>
+  </si>
+  <si>
+    <t>3818.00</t>
+  </si>
+  <si>
+    <t>14330.00</t>
+  </si>
+  <si>
+    <t>115.50</t>
+  </si>
+  <si>
+    <t>7590.00</t>
+  </si>
+  <si>
+    <t>760.00</t>
+  </si>
+  <si>
+    <t>5800.00</t>
+  </si>
+  <si>
+    <t>30000.00</t>
+  </si>
+  <si>
+    <t>558358.95</t>
+  </si>
+  <si>
+    <t>53261.49</t>
+  </si>
+  <si>
+    <t>2040.00</t>
+  </si>
+  <si>
+    <t>153.12</t>
+  </si>
+  <si>
+    <t>24806.59</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>8221.10</t>
+  </si>
+  <si>
+    <t>5177.80</t>
+  </si>
+  <si>
+    <t>7223.00</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>1080.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>518.82</t>
+  </si>
+  <si>
+    <t>4226.00</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
+    <t>5240.00</t>
+  </si>
+  <si>
+    <t>20188.71</t>
+  </si>
+  <si>
+    <t>2536.00</t>
+  </si>
+  <si>
+    <t>1632.50</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>554.00</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>332.66</t>
+  </si>
+  <si>
+    <t>2760.00</t>
+  </si>
+  <si>
+    <t>7475.00</t>
+  </si>
+  <si>
+    <t>4040.76</t>
+  </si>
+  <si>
+    <t>15400.00</t>
+  </si>
+  <si>
+    <t>4984.00</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>17000.00</t>
+  </si>
+  <si>
+    <t>4300.00</t>
+  </si>
+  <si>
+    <t>79000.00</t>
+  </si>
+  <si>
+    <t>2500.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>15000.00</t>
+  </si>
+  <si>
+    <t>282800.70</t>
+  </si>
+  <si>
+    <t>900.00</t>
+  </si>
+  <si>
+    <t>308.52</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>1565.00</t>
+  </si>
+  <si>
+    <t>4878.89</t>
+  </si>
+  <si>
+    <t>2631.05</t>
+  </si>
+  <si>
+    <t>22068.56</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>14000.00</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>55118.83</t>
+  </si>
+  <si>
+    <t>11000.00</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>4999.12</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>9000.00</t>
+  </si>
+  <si>
+    <t>6446.84</t>
+  </si>
+  <si>
+    <t>24641.50</t>
+  </si>
+  <si>
+    <t>15500.00</t>
+  </si>
+  <si>
+    <t>4500.00</t>
+  </si>
+  <si>
+    <t>4700.00</t>
+  </si>
+  <si>
+    <t>8100.00</t>
+  </si>
+  <si>
+    <t>7776.00</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>2800.00</t>
+  </si>
+  <si>
+    <t>284.00</t>
+  </si>
+  <si>
+    <t>1150.00</t>
+  </si>
+  <si>
+    <t>2340.00</t>
+  </si>
+  <si>
+    <t>9428.00</t>
+  </si>
+  <si>
+    <t>4450.00</t>
+  </si>
+  <si>
+    <t>141.66</t>
+  </si>
+  <si>
+    <t>22500.00</t>
+  </si>
+  <si>
+    <t>963.06</t>
+  </si>
+  <si>
+    <t>690.00</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>607.16</t>
+  </si>
+  <si>
+    <t>768.00</t>
+  </si>
+  <si>
+    <t>795.96</t>
+  </si>
+  <si>
+    <t>31610.00</t>
+  </si>
+  <si>
+    <t>6308.00</t>
+  </si>
+  <si>
+    <t>16140.00</t>
+  </si>
+  <si>
+    <t>4442.76</t>
+  </si>
+  <si>
+    <t>3986.95</t>
+  </si>
+  <si>
+    <t>6293.00</t>
+  </si>
+  <si>
+    <t>434.00</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>305.05</t>
+  </si>
+  <si>
+    <t>17816.00</t>
+  </si>
+  <si>
+    <t>93325.08</t>
+  </si>
+  <si>
+    <t>13098.98</t>
+  </si>
+  <si>
+    <t>25000.00</t>
+  </si>
+  <si>
+    <t>50000.00</t>
+  </si>
+  <si>
+    <t>1095892.26</t>
+  </si>
+  <si>
+    <t>6141.61</t>
+  </si>
+  <si>
+    <t>3400.00</t>
+  </si>
+  <si>
+    <t>18900.00</t>
+  </si>
+  <si>
+    <t>128000.00</t>
+  </si>
+  <si>
+    <t>135500.00</t>
+  </si>
+  <si>
+    <t>224000.00</t>
+  </si>
+  <si>
+    <t>320000.00</t>
+  </si>
+  <si>
+    <t>226500.00</t>
+  </si>
+  <si>
+    <t>184190.00</t>
+  </si>
+  <si>
+    <t>136140.00</t>
+  </si>
+  <si>
+    <t>9033.00</t>
+  </si>
+  <si>
+    <t>9200.00</t>
+  </si>
+  <si>
+    <t>1239032.94</t>
+  </si>
+  <si>
+    <t>52260.00</t>
+  </si>
+  <si>
+    <t>1103922.00</t>
+  </si>
+  <si>
+    <t>625.00</t>
+  </si>
+  <si>
+    <t>7500.00</t>
+  </si>
+  <si>
+    <t>5040.00</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>13000.00</t>
+  </si>
+  <si>
+    <t>58831.54</t>
+  </si>
+  <si>
+    <t>62000.00</t>
+  </si>
+  <si>
+    <t>280000.00</t>
+  </si>
+  <si>
+    <t>535.53</t>
+  </si>
+  <si>
+    <t>1185.80</t>
+  </si>
+  <si>
+    <t>770.00</t>
   </si>
 </sst>
 </file>
